--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>06.02.2024 0:00:00</t>
+    <t>09.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
@@ -76,12 +76,36 @@
     <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>101300</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 240 л, [70+20]х140 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>101368</t>
+  </si>
+  <si>
+    <t>Средство для очистки сантехники "Tiger Shark" WC Гель, изогнутое горло, 1000 мл</t>
+  </si>
+  <si>
+    <t>451423</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные 2-сл., бел., 10 м, 2 рул/упак "Familia" Радуга</t>
+  </si>
+  <si>
     <t>107441</t>
   </si>
   <si>
     <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
+    <t>102319</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
+  </si>
+  <si>
     <t>102853</t>
   </si>
   <si>
@@ -100,6 +124,12 @@
     <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
+    <t>103473</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>140080</t>
   </si>
   <si>
@@ -118,24 +148,54 @@
     <t>Контейнер 500 мл 1-секц., овал 159х130х55 мм, неразъем.крышка, прозр., ОПС, 330 шт/кор "Протэк"</t>
   </si>
   <si>
+    <t>104834</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 155х110х13,5 мм, прозр., ПЭТ, 800 шт/кор "OSQ" OpSalad 400/450</t>
+  </si>
+  <si>
     <t>106096</t>
   </si>
   <si>
     <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф</t>
   </si>
   <si>
+    <t>106114</t>
+  </si>
+  <si>
+    <t>Коробка для наггетсов 150х91х70 мм, L, крафт, карт., 25 шт/упак "OSQ" Eco Fast Food Box</t>
+  </si>
+  <si>
+    <t>104381</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл., бел., ПП, 50 шт/упак (ТОО ПКФ Тулпар)</t>
+  </si>
+  <si>
     <t>107468</t>
   </si>
   <si>
     <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
   </si>
   <si>
+    <t>107231</t>
+  </si>
+  <si>
+    <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
     <t>254501</t>
   </si>
   <si>
     <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
   </si>
   <si>
+    <t>191620</t>
+  </si>
+  <si>
+    <t>Ланч-бокс 1-секц. 230х155х87 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
     <t>152474</t>
   </si>
   <si>
@@ -148,24 +208,174 @@
     <t>Контейнер 350 мл 1-секц., овал 159х130х40 мм, неразъем.крышка, прозр., ОПС, 350 шт/кор "Протэк"</t>
   </si>
   <si>
+    <t>111452</t>
+  </si>
+  <si>
+    <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
+  </si>
+  <si>
+    <t>111577</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 220х140х13,5 мм, прозр., ПЭТ 400 шт/кор "OSQ" OpSalad 800</t>
+  </si>
+  <si>
     <t>111613</t>
   </si>
   <si>
     <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
   </si>
   <si>
+    <t>111875</t>
+  </si>
+  <si>
+    <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>112168</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 300 мл, прозр., горло d38 мм, крышка в компл., 300 шт/кор (ИП PET Service)</t>
+  </si>
+  <si>
+    <t>112170</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 500 мл, прозр., горло d38 мм, крышка в компл., 200 шт/кор (ИП PET Service)</t>
+  </si>
+  <si>
+    <t>112173</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 1000 мл, прозр., горло d38 мм, крышка в компл., 100 шт/кор (ИП PET Service)</t>
+  </si>
+  <si>
     <t>112308</t>
   </si>
   <si>
     <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
   </si>
   <si>
+    <t>112341</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>112636</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл, d150хh60 мм, без окна, без крышки, крафт-бел., карт., 45 шт/упак "OSQ" Round Bowl </t>
+  </si>
+  <si>
+    <t>112637</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d150хh40 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl flat lid</t>
+  </si>
+  <si>
+    <t>112790</t>
+  </si>
+  <si>
+    <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112792</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
+  </si>
+  <si>
+    <t>112793</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112884</t>
+  </si>
+  <si>
+    <t>Средство для мытья стекол и зеркал "Platinum Sharks" Silver Glass, триггер, 750 мл</t>
+  </si>
+  <si>
+    <t>113206</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113371</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113378</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113509</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113510</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая Кристалл 180 мм, прозр., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113569</t>
+  </si>
+  <si>
+    <t>Пакет [320+200]х370 мм с круч. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
     <t>113606</t>
   </si>
   <si>
     <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>113864</t>
+  </si>
+  <si>
+    <t>Пакет [280+150]х320 мм с плоск. ручками, крафт, бум., 250 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113909</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d100хh10 мм, прозр., ПП, 25 шт/упак "OSQ" Round Bowl PP lid</t>
+  </si>
+  <si>
+    <t>113926</t>
+  </si>
+  <si>
+    <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>114003</t>
+  </si>
+  <si>
+    <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad B</t>
+  </si>
+  <si>
+    <t>114508</t>
+  </si>
+  <si>
+    <t>Упаковка [коробка] для сэндвичей 130х130х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/у</t>
+  </si>
+  <si>
+    <t>114516</t>
+  </si>
+  <si>
+    <t>Супница 400 мл, d100хh85 мм, без крышки, крафт-бел., карт., 25 шт/упак "OSQ" Round Bowl</t>
+  </si>
+  <si>
     <t>114531</t>
   </si>
   <si>
@@ -184,10 +394,28 @@
     <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Кировпейпер)</t>
   </si>
   <si>
+    <t>114952</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115603</t>
+  </si>
+  <si>
+    <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак "Aerosnab"</t>
+  </si>
+  <si>
     <t>108394</t>
   </si>
   <si>
     <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ "P.V.Ran"</t>
+  </si>
+  <si>
+    <t>109414</t>
+  </si>
+  <si>
+    <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
   </si>
 </sst>
 </file>
@@ -325,7 +553,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H23"/>
+  <dimension ref="H61"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -453,14 +681,14 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.3</v>
+        <v>534.73</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
-      <c r="H5" s="7" t="n">
-        <v>3000</v>
+      <c r="H5" s="6" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="6" ht="11" customHeight="true">
@@ -477,14 +705,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>20.65</v>
+        <v>550</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="7" t="n">
-        <v>8450</v>
+      <c r="H6" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="11" customHeight="true">
@@ -501,17 +729,17 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>12.11</v>
+        <v>263.1</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
-      <c r="H7" s="7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="8" ht="11" customHeight="true">
+      <c r="H7" s="6" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" ht="22" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -525,14 +753,14 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>13.55</v>
+        <v>6.3</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="7" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" ht="11" customHeight="true">
@@ -549,14 +777,14 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>3.14</v>
+        <v>4.02</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="7" t="n">
-        <v>12000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -573,17 +801,17 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2.02</v>
+        <v>20.65</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
       <c r="H10" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="11" ht="22" customHeight="true">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="true">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -597,17 +825,17 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>21.15</v>
+        <v>12.11</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
       <c r="H11" s="7" t="n">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="12" ht="22" customHeight="true">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="12" ht="11" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -621,14 +849,14 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>4.99</v>
+        <v>13.55</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="7" t="n">
-        <v>76000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -645,14 +873,14 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>5.37</v>
+        <v>5.12</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
       <c r="H13" s="7" t="n">
-        <v>21600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -669,17 +897,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>26.19</v>
+        <v>3.14</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="15" ht="22" customHeight="true">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -693,14 +921,14 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>18.55</v>
+        <v>2.02</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="7" t="n">
-        <v>5250</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="16" ht="22" customHeight="true">
@@ -717,17 +945,17 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>18.5</v>
+        <v>21.15</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="7" t="n">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="17" ht="11" customHeight="true">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -741,17 +969,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>33.17</v>
+        <v>15.28</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="7" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" ht="11" customHeight="true">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -764,18 +992,18 @@
       <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="8" t="n">
-        <v>1607.33</v>
+      <c r="E18" s="4" t="n">
+        <v>4.99</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" ht="11" customHeight="true">
+      <c r="H18" s="7" t="n">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="19" ht="22" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -788,16 +1016,18 @@
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3" t="e"/>
+      <c r="E19" s="4" t="n">
+        <v>25.53</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="7" t="n">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="20" ht="22" customHeight="true">
+      <c r="H19" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" ht="11" customHeight="true">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -811,14 +1041,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>287.68</v>
+        <v>2.85</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="6" t="n">
-        <v>20</v>
+      <c r="H20" s="7" t="n">
+        <v>22000</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true">
@@ -835,17 +1065,17 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>541.88</v>
+        <v>5.37</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
-      <c r="H21" s="6" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true">
+      <c r="H21" s="7" t="n">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -858,13 +1088,15 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="3" t="e"/>
+      <c r="E22" s="4" t="n">
+        <v>16.7</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
-      <c r="H22" s="7" t="n">
-        <v>6000</v>
+      <c r="H22" s="6" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
@@ -880,15 +1112,921 @@
       <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="4" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>59.63</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="7" t="n">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="7" t="n">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="27" ht="22" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="7" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1607.33</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="7" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="36" ht="22" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="7" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="7" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="7" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>430</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="45" ht="22" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3" t="e"/>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="7" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>38.77</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="3" t="e"/>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="7" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="6" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="6" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" ht="22" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="6" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" ht="22" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>287.68</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>541.88</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="3" t="e"/>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" ht="22" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="7" t="n">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="60" ht="11" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="8" t="n">
         <v>3957.89</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5" t="e"/>
-      <c r="H23" s="6" t="n">
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="6" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="61" ht="11" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>810</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="6" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>09.02.2024 0:00:00</t>
+    <t>12.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Средство для очистки сантехники "Tiger Shark" WC Гель, изогнутое горло, 1000 мл</t>
+  </si>
+  <si>
+    <t>101369</t>
+  </si>
+  <si>
+    <t>Средство для мытья посуды "Silver Regular" Лимон, бутылка ПЭТ, 5000 мл</t>
   </si>
   <si>
     <t>451423</t>
@@ -553,7 +559,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H61"/>
+  <dimension ref="H62"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -729,17 +735,17 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>263.1</v>
+        <v>850</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="6" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" ht="22" customHeight="true">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="11" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -753,17 +759,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>6.3</v>
+        <v>263.1</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="7" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" ht="11" customHeight="true">
+      <c r="H8" s="6" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -777,14 +783,14 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>4.02</v>
+        <v>6.3</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="7" t="n">
-        <v>55000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -801,14 +807,14 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>20.65</v>
+        <v>4.02</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
       <c r="H10" s="7" t="n">
-        <v>8450</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -825,14 +831,14 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>12.11</v>
+        <v>20.65</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
       <c r="H11" s="7" t="n">
-        <v>18000</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -849,14 +855,14 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>13.55</v>
+        <v>12.11</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="7" t="n">
-        <v>1000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -873,14 +879,14 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>5.12</v>
+        <v>13.55</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
       <c r="H13" s="7" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -897,14 +903,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>3.14</v>
+        <v>5.12</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="7" t="n">
-        <v>12000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -921,7 +927,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>2.02</v>
+        <v>3.14</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
@@ -931,7 +937,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="16" ht="22" customHeight="true">
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -945,14 +951,14 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>21.15</v>
+        <v>2.02</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="7" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="true">
@@ -969,14 +975,14 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>15.28</v>
+        <v>21.15</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="7" t="n">
-        <v>1500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="true">
@@ -993,14 +999,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>4.99</v>
+        <v>15.28</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="7" t="n">
-        <v>76000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="true">
@@ -1017,17 +1023,17 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>25.53</v>
+        <v>4.99</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="6" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" ht="11" customHeight="true">
+      <c r="H19" s="7" t="n">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="20" ht="22" customHeight="true">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1041,14 +1047,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>2.85</v>
+        <v>25.53</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="7" t="n">
-        <v>22000</v>
+      <c r="H20" s="6" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true">
@@ -1065,17 +1071,17 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>5.37</v>
+        <v>2.85</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="7" t="n">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="22" ht="22" customHeight="true">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1089,17 +1095,17 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>16.7</v>
+        <v>5.37</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
-      <c r="H22" s="6" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true">
+      <c r="H22" s="7" t="n">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1113,14 +1119,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>26.19</v>
+        <v>16.7</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
-      <c r="H23" s="7" t="n">
-        <v>6000</v>
+      <c r="H23" s="6" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true">
@@ -1137,17 +1143,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>59.63</v>
+        <v>26.19</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" ht="22" customHeight="true">
+      <c r="H24" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1161,14 +1167,14 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>18.55</v>
+        <v>59.63</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="7" t="n">
-        <v>5250</v>
+      <c r="H25" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="26" ht="22" customHeight="true">
@@ -1185,7 +1191,7 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>18.5</v>
+        <v>18.55</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
@@ -1209,17 +1215,17 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>11.99</v>
+        <v>18.5</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="7" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="28" ht="22" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1233,14 +1239,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>29.68</v>
+        <v>11.99</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
-      <c r="H28" s="6" t="n">
-        <v>800</v>
+      <c r="H28" s="7" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true">
@@ -1257,17 +1263,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>33.17</v>
+        <v>29.68</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="7" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="30" ht="22" customHeight="true">
+      <c r="H29" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1281,14 +1287,14 @@
         <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>27.28</v>
+        <v>33.17</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
-      <c r="H30" s="6" t="n">
-        <v>400</v>
+      <c r="H30" s="7" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="true">
@@ -1305,14 +1311,14 @@
         <v>70</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>48</v>
+        <v>27.28</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="6" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true">
@@ -1329,14 +1335,14 @@
         <v>72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
-      <c r="H32" s="7" t="n">
-        <v>2000</v>
+      <c r="H32" s="6" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="true">
@@ -1353,17 +1359,17 @@
         <v>74</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1376,18 +1382,18 @@
       <c r="D34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="8" t="n">
-        <v>1607.33</v>
+      <c r="E34" s="4" t="n">
+        <v>50</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
-      <c r="H34" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" ht="22" customHeight="true">
+      <c r="H34" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1400,15 +1406,15 @@
       <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="4" t="n">
-        <v>19.96</v>
+      <c r="E35" s="8" t="n">
+        <v>1607.33</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
-      <c r="H35" s="7" t="n">
-        <v>3200</v>
+      <c r="H35" s="6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="true">
@@ -1425,17 +1431,17 @@
         <v>80</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>28.92</v>
+        <v>19.96</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="7" t="n">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>27.9</v>
+        <v>28.92</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
@@ -1473,14 +1479,14 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>8.92</v>
+        <v>27.9</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="7" t="n">
-        <v>3000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true">
@@ -1497,14 +1503,14 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2.97</v>
+        <v>8.92</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
       <c r="H39" s="7" t="n">
-        <v>50000</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true">
@@ -1528,7 +1534,7 @@
       </c>
       <c r="G40" s="5" t="e"/>
       <c r="H40" s="7" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1545,14 +1551,14 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>430</v>
+        <v>2.97</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
-      <c r="H41" s="6" t="n">
-        <v>36</v>
+      <c r="H41" s="7" t="n">
+        <v>40000</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true">
@@ -1569,14 +1575,14 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>15.63</v>
+        <v>430</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
-      <c r="H42" s="7" t="n">
-        <v>10000</v>
+      <c r="H42" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="11" customHeight="true">
@@ -1593,17 +1599,17 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>20.14</v>
+        <v>15.63</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1617,14 +1623,14 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>16.97</v>
+        <v>20.14</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
       <c r="H44" s="7" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="true">
@@ -1641,17 +1647,17 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>7.61</v>
+        <v>16.97</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
       <c r="H45" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" ht="22" customHeight="true">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1664,13 +1670,15 @@
       <c r="D46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="3" t="e"/>
+      <c r="E46" s="4" t="n">
+        <v>7.61</v>
+      </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="7" t="n">
-        <v>3300</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true">
@@ -1686,15 +1694,13 @@
       <c r="D47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <v>38.77</v>
-      </c>
+      <c r="E47" s="3" t="e"/>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
       <c r="H47" s="7" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true">
@@ -1710,13 +1716,15 @@
       <c r="D48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="3" t="e"/>
+      <c r="E48" s="4" t="n">
+        <v>38.77</v>
+      </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
       <c r="H48" s="7" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true">
@@ -1732,15 +1740,13 @@
       <c r="D49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="4" t="n">
-        <v>28.94</v>
-      </c>
+      <c r="E49" s="3" t="e"/>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
-      <c r="H49" s="6" t="n">
-        <v>350</v>
+      <c r="H49" s="7" t="n">
+        <v>25000</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true">
@@ -1757,14 +1763,14 @@
         <v>108</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>15.62</v>
+        <v>28.94</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
       <c r="H50" s="6" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true">
@@ -1781,17 +1787,17 @@
         <v>110</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>24.64</v>
+        <v>15.62</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
-      <c r="H51" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="52" ht="22" customHeight="true">
+      <c r="H51" s="6" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1805,14 +1811,14 @@
         <v>112</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>18.69</v>
+        <v>24.64</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
-      <c r="H52" s="6" t="n">
-        <v>800</v>
+      <c r="H52" s="7" t="n">
+        <v>4800</v>
       </c>
     </row>
     <row r="53" ht="22" customHeight="true">
@@ -1829,14 +1835,14 @@
         <v>114</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>21.96</v>
+        <v>18.69</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
-      <c r="H53" s="7" t="n">
-        <v>2000</v>
+      <c r="H53" s="6" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true">
@@ -1853,14 +1859,14 @@
         <v>116</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>20.89</v>
+        <v>21.96</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
-      <c r="H54" s="6" t="n">
-        <v>450</v>
+      <c r="H54" s="7" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="true">
@@ -1877,17 +1883,17 @@
         <v>118</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>287.68</v>
+        <v>20.89</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
       <c r="H55" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" ht="11" customHeight="true">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" ht="22" customHeight="true">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -1901,14 +1907,14 @@
         <v>120</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>541.88</v>
+        <v>287.68</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
       <c r="H56" s="6" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true">
@@ -1924,16 +1930,18 @@
       <c r="D57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="3" t="e"/>
+      <c r="E57" s="4" t="n">
+        <v>541.88</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
-      <c r="H57" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="58" ht="22" customHeight="true">
+      <c r="H57" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -1946,18 +1954,16 @@
       <c r="D58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="4" t="n">
-        <v>16.97</v>
-      </c>
+      <c r="E58" s="3" t="e"/>
       <c r="F58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="5" t="e"/>
       <c r="H58" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="59" ht="22" customHeight="true">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -1971,14 +1977,14 @@
         <v>126</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>6.89</v>
+        <v>16.97</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="5" t="e"/>
       <c r="H59" s="7" t="n">
-        <v>32000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true">
@@ -1994,15 +2000,15 @@
       <c r="D60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="8" t="n">
-        <v>3957.89</v>
+      <c r="E60" s="4" t="n">
+        <v>6.89</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="5" t="e"/>
-      <c r="H60" s="6" t="n">
-        <v>30</v>
+      <c r="H60" s="7" t="n">
+        <v>31200</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true">
@@ -2018,14 +2024,38 @@
       <c r="D61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="4" t="n">
-        <v>810</v>
+      <c r="E61" s="8" t="n">
+        <v>3957.89</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="5" t="e"/>
       <c r="H61" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" ht="11" customHeight="true">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>810</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="e"/>
+      <c r="H62" s="6" t="n">
         <v>26</v>
       </c>
     </row>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>14.02.2024 0:00:00</t>
+    <t>16.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>16.02.2024 0:00:00</t>
+    <t>19.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
@@ -130,6 +130,12 @@
     <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
   </si>
   <si>
+    <t>110626</t>
+  </si>
+  <si>
+    <t>Контейнер 1200 мл, 167х167х63 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
     <t>254501</t>
   </si>
   <si>
@@ -160,6 +166,24 @@
     <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
   </si>
   <si>
+    <t>112795</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113504</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113506</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>113606</t>
   </si>
   <si>
@@ -182,6 +206,18 @@
   </si>
   <si>
     <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Кировпейпер)</t>
+  </si>
+  <si>
+    <t>115601</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, оранж., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115602</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, зел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>108394</t>
@@ -325,7 +361,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H23"/>
+  <dimension ref="H29"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -338,7 +374,7 @@
     <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="true">
@@ -655,7 +691,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="14" ht="11" customHeight="true">
+    <row r="14" ht="22" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -669,17 +705,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>26.19</v>
+        <v>32.02</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="15" ht="22" customHeight="true">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -693,14 +729,14 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>18.55</v>
+        <v>26.19</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="7" t="n">
-        <v>5250</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="16" ht="22" customHeight="true">
@@ -717,7 +753,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>18.5</v>
+        <v>18.55</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
@@ -727,7 +763,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="17" ht="11" customHeight="true">
+    <row r="17" ht="22" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -741,14 +777,14 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>33.17</v>
+        <v>18.5</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="7" t="n">
-        <v>3000</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
@@ -764,15 +800,15 @@
       <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="8" t="n">
-        <v>1607.33</v>
+      <c r="E18" s="4" t="n">
+        <v>33.17</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="6" t="n">
-        <v>5</v>
+      <c r="H18" s="7" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -788,13 +824,15 @@
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3" t="e"/>
+      <c r="E19" s="8" t="n">
+        <v>1607.33</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="7" t="n">
-        <v>25000</v>
+      <c r="H19" s="6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="true">
@@ -811,17 +849,17 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>287.68</v>
+        <v>8.57</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="11" customHeight="true">
+      <c r="H20" s="7" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -835,17 +873,17 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>541.88</v>
+        <v>8.57</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
-      <c r="H21" s="6" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true">
+      <c r="H21" s="7" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -858,13 +896,15 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="3" t="e"/>
+      <c r="E22" s="4" t="n">
+        <v>8.56</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="7" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
@@ -880,14 +920,154 @@
       <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="3" t="e"/>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="7" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>287.68</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>541.88</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="e"/>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" ht="22" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" ht="22" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="8" t="n">
         <v>3957.89</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5" t="e"/>
-      <c r="H23" s="6" t="n">
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="6" t="n">
         <v>30</v>
       </c>
     </row>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Дата</t>
   </si>
@@ -49,49 +49,37 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>19.02.2024 0:00:00</t>
+    <t>21.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
   </si>
   <si>
-    <t>103896</t>
-  </si>
-  <si>
-    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
+    <t>187160</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Премиум чайный" [6 стак. 200 мл, ПП+6 тар. d167 мм, ПС+6 ч. лож.+6 вил.+6 </t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>108601</t>
-  </si>
-  <si>
-    <t>Салфетка из вискозы 300х340 мм, 80 гр/м2, цвет в ассорт., 3 шт/упак "Чисто-Солнышко"</t>
-  </si>
-  <si>
-    <t>101043</t>
-  </si>
-  <si>
-    <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>107441</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>102853</t>
-  </si>
-  <si>
-    <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ)</t>
-  </si>
-  <si>
-    <t>102855</t>
-  </si>
-  <si>
-    <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
+    <t>461410</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 60 л, 62х74 см, черн., ПНД, 20 шт/рул "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>307971</t>
+  </si>
+  <si>
+    <t>Салфетки ажурные d220 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+  </si>
+  <si>
+    <t>107440</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная с отверстием, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
     <t>115416</t>
@@ -100,34 +88,88 @@
     <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
-    <t>140080</t>
-  </si>
-  <si>
-    <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>143080</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>102338</t>
-  </si>
-  <si>
-    <t>Контейнер 500 мл 1-секц., овал 159х130х55 мм, неразъем.крышка, прозр., ОПС, 330 шт/кор "Протэк"</t>
-  </si>
-  <si>
-    <t>106096</t>
-  </si>
-  <si>
-    <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф</t>
-  </si>
-  <si>
-    <t>107468</t>
-  </si>
-  <si>
-    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
+    <t>103116</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>106917</t>
+  </si>
+  <si>
+    <t>Ведро пищевое 550 мл, d109хh79 мм, без ручки, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>102647</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц., овал 125х125х60 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>105397</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл 1-секц. 186х132х45 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Пласт</t>
+  </si>
+  <si>
+    <t>105398</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл 1-секц. 186х132х45 мм, серия 186, без крышки, черн., ПП, 500 шт/кор (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>105451</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру для пресервов [ведру] d109 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>106620</t>
+  </si>
+  <si>
+    <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>106621</t>
+  </si>
+  <si>
+    <t>Соусник 50 мл, d64хh30 мм, неразъем. крышка, прозр., ПЭТ, 50 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>106386</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 186х132х8 мм, прозр., ПП, 500 шт/кор (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>106387</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d140хh15 мм, прозр., ПП, 540 шт/кор (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>106390</t>
+  </si>
+  <si>
+    <t>Контейнер 350 мл 1-секц., овал 155х125х45 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>106395</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>106396</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, черн., ПП, 500 шт/кор (ТОО Аке Пласт</t>
+  </si>
+  <si>
+    <t>106412</t>
+  </si>
+  <si>
+    <t>Контейнер 350 мл 1-секц. d140хh55 мм, без крышки, черн., ПП, 540 шт/кор (ТОО Аке Пласт)</t>
   </si>
   <si>
     <t>110626</t>
@@ -136,34 +178,34 @@
     <t>Контейнер 1200 мл, 167х167х63 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
   </si>
   <si>
-    <t>254501</t>
-  </si>
-  <si>
-    <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
-  </si>
-  <si>
-    <t>152474</t>
-  </si>
-  <si>
-    <t>Контейнер 250 мл 1-секц., овал 159х130х30 мм, неразъем.крышка, прозр., ОПС, 350 шт/кор "Протэк"</t>
-  </si>
-  <si>
-    <t>153470</t>
-  </si>
-  <si>
-    <t>Контейнер 350 мл 1-секц., овал 159х130х40 мм, неразъем.крышка, прозр., ОПС, 350 шт/кор "Протэк"</t>
-  </si>
-  <si>
-    <t>111613</t>
-  </si>
-  <si>
-    <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
-  </si>
-  <si>
-    <t>112308</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+    <t>111451</t>
+  </si>
+  <si>
+    <t>Коробка для наггетсов 150х91х70 мм, L, крафт-бел., карт., 25 шт/упак "OSQ" Eco Fast Food Box</t>
+  </si>
+  <si>
+    <t>111452</t>
+  </si>
+  <si>
+    <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
+  </si>
+  <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112341</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>112790</t>
+  </si>
+  <si>
+    <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>112795</t>
@@ -172,6 +214,60 @@
     <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
+    <t>112968</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>113368</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113370</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113371</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113373</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113375</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113379</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113381</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113382</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
     <t>113504</t>
   </si>
   <si>
@@ -181,31 +277,46 @@
     <t>113506</t>
   </si>
   <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>113606</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>114531</t>
-  </si>
-  <si>
-    <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
-  </si>
-  <si>
-    <t>114751</t>
-  </si>
-  <si>
-    <t>Жидкость незамерзающая для стекол "Hi-tech Wash", бутылка ПЭТ, 4500 мл</t>
-  </si>
-  <si>
-    <t>114812</t>
-  </si>
-  <si>
-    <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Кировпейпер)</t>
+    <t>113508</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113511</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113710</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 178х178х13,5 мм, прозр., ПЭТ, 300 шт/кор "OSQ" OpSalad 1200</t>
+  </si>
+  <si>
+    <t>114175</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. 108х82х48 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>114508</t>
+  </si>
+  <si>
+    <t>Упаковка [коробка] для сэндвичей 130х130х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/у</t>
+  </si>
+  <si>
+    <t>114920</t>
+  </si>
+  <si>
+    <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак "Aerosnab"</t>
+  </si>
+  <si>
+    <t>114952</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
   </si>
   <si>
     <t>115601</t>
@@ -220,10 +331,22 @@
     <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, зел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
-    <t>108394</t>
-  </si>
-  <si>
-    <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ "P.V.Ran"</t>
+    <t>115760</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 350 мл 2 сл., d90 мм, лого "Жетi Тандыр", карт., 25 шт/упак (ТОО Классика)</t>
+  </si>
+  <si>
+    <t>115767</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 450 мл 1 сл., d90 мм, диз. "Жетi  Тандыр", карт., 50 шт/упак (ТОО Классика)</t>
+  </si>
+  <si>
+    <t>109414</t>
+  </si>
+  <si>
+    <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
   </si>
 </sst>
 </file>
@@ -316,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -339,9 +462,6 @@
     <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -361,7 +481,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H29"/>
+  <dimension ref="H50"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -371,7 +491,7 @@
     <col min="2" max="2" width="18.66796875" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
     <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
     <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
@@ -403,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="11" customHeight="true">
+    <row r="2" ht="22" customHeight="true">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -417,17 +537,17 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>92.85</v>
+        <v>151.4</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="3" ht="22" customHeight="true">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="11" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -441,14 +561,14 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>128.33</v>
+        <v>119.44</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="6" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" ht="11" customHeight="true">
@@ -465,14 +585,14 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>80.7</v>
+        <v>746.3</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
       <c r="H4" s="6" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="true">
@@ -496,7 +616,7 @@
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" ht="11" customHeight="true">
@@ -513,17 +633,17 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>20.65</v>
+        <v>13.55</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
       <c r="H6" s="7" t="n">
-        <v>8450</v>
-      </c>
-    </row>
-    <row r="7" ht="11" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" ht="22" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -537,17 +657,17 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>12.11</v>
+        <v>15.48</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="8" ht="11" customHeight="true">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="8" ht="22" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -561,17 +681,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>13.55</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" ht="11" customHeight="true">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -585,17 +705,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>3.14</v>
+        <v>16.5</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="10" ht="22" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -609,14 +729,14 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2.02</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
       <c r="H10" s="7" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="true">
@@ -633,14 +753,14 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>21.15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
       <c r="H11" s="7" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="true">
@@ -657,17 +777,17 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>4.99</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="7" t="n">
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="13" ht="11" customHeight="true">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="13" ht="22" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -681,14 +801,14 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>5.37</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
       <c r="H13" s="7" t="n">
-        <v>21600</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="true">
@@ -705,14 +825,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>32.02</v>
+        <v>5.7</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="7" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -729,17 +849,17 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>26.19</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="16" ht="22" customHeight="true">
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -753,14 +873,14 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>18.55</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="7" t="n">
-        <v>5250</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="true">
@@ -777,17 +897,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="7" t="n">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="18" ht="11" customHeight="true">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -801,17 +921,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>33.17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="7" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" ht="11" customHeight="true">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" ht="22" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -824,15 +944,15 @@
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="8" t="n">
-        <v>1607.33</v>
+      <c r="E19" s="4" t="n">
+        <v>15</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="6" t="n">
-        <v>5</v>
+      <c r="H19" s="7" t="n">
+        <v>11500</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="true">
@@ -849,14 +969,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>8.57</v>
+        <v>15.5</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="7" t="n">
-        <v>150000</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true">
@@ -873,14 +993,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>8.57</v>
+        <v>32.02</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="7" t="n">
-        <v>180000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="true">
@@ -897,7 +1017,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>8.56</v>
+        <v>24.96</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
@@ -907,7 +1027,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" ht="11" customHeight="true">
+    <row r="23" ht="22" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -920,16 +1040,18 @@
       <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="3" t="e"/>
+      <c r="E23" s="4" t="n">
+        <v>11.99</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="7" t="n">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="true">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -943,17 +1065,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>287.68</v>
+        <v>21.58</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true">
+      <c r="H24" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -967,14 +1089,14 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>541.88</v>
+        <v>19.96</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="6" t="n">
-        <v>500</v>
+      <c r="H25" s="7" t="n">
+        <v>2400</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true">
@@ -990,13 +1112,15 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="3" t="e"/>
+      <c r="E26" s="4" t="n">
+        <v>8.92</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
       <c r="H26" s="7" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="27" ht="22" customHeight="true">
@@ -1013,17 +1137,17 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>8.6</v>
+        <v>8.57</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" ht="22" customHeight="true">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1037,14 +1161,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>8.6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="7" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true">
@@ -1060,15 +1184,515 @@
       <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="8" t="n">
-        <v>3957.89</v>
+      <c r="E29" s="4" t="n">
+        <v>16.52</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="6" t="n">
-        <v>30</v>
+      <c r="H29" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="7" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="7" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" ht="22" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="7" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="38" ht="22" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="7" t="n">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="7" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="7" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" ht="22" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" ht="22" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" ht="22" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="3" t="e"/>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="3" t="e"/>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>810</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>24.02.2024 0:00:00</t>
+    <t>29.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
@@ -64,18 +64,156 @@
     <t>Нет</t>
   </si>
   <si>
+    <t>100024</t>
+  </si>
+  <si>
+    <t>Коробка для пиццы 300х300х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
+  </si>
+  <si>
+    <t>100027</t>
+  </si>
+  <si>
+    <t>Коробка для пиццы 300х300х40 мм, крафт, микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
+  </si>
+  <si>
+    <t>103896</t>
+  </si>
+  <si>
+    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
+  </si>
+  <si>
+    <t>105654</t>
+  </si>
+  <si>
+    <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
+  </si>
+  <si>
     <t>461410</t>
   </si>
   <si>
     <t>Мешок для мусора 60 л, 62х74 см, черн., ПНД, 20 шт/рул "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>101300</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 240 л, [70+20]х140 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>102186</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>103727</t>
+  </si>
+  <si>
+    <t>Средство для мытья стекол и зеркал "Profit" Window, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>103728</t>
+  </si>
+  <si>
+    <t>Средство для мытья стекол и зеркал "Profit" Window, триггер, 500 мл</t>
+  </si>
+  <si>
+    <t>307973</t>
+  </si>
+  <si>
+    <t>Салфетки ажурные d260 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+  </si>
+  <si>
+    <t>307974</t>
+  </si>
+  <si>
+    <t>Салфетки ажурные d280 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+  </si>
+  <si>
+    <t>307972</t>
+  </si>
+  <si>
+    <t>Салфетки ажурные d240 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+  </si>
+  <si>
+    <t>270126</t>
+  </si>
+  <si>
+    <t>Бумага для выпечки силикон. в рулоне 380мм х 25м, коричн. "Nordic EBG"</t>
+  </si>
+  <si>
+    <t>101694</t>
+  </si>
+  <si>
+    <t>Мыло кусковое хозяйственное "Калужский блеск" 72%, 200 г</t>
+  </si>
+  <si>
+    <t>451423</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные 2-сл., бел., 10 м, 2 рул/упак "Familia" Радуга</t>
+  </si>
+  <si>
+    <t>107441</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>102853</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ)</t>
+  </si>
+  <si>
+    <t>102855</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
+  </si>
+  <si>
+    <t>100120</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+  </si>
+  <si>
+    <t>115418</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115419</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
     <t>103116</t>
   </si>
   <si>
     <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
+    <t>103127</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм плоская с отверстием, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>141080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>143080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>106917</t>
   </si>
   <si>
@@ -100,6 +238,24 @@
     <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ТОО Аке Пласт)</t>
   </si>
   <si>
+    <t>501323</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
+  </si>
+  <si>
+    <t>106098</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 150х145 мм, бел., бум., 2500 шт/кор (ООО ФлексаПринт)</t>
+  </si>
+  <si>
+    <t>110677</t>
+  </si>
+  <si>
+    <t>Пакет для картофеля фри 140х110 мм, диз. "Рог изобилия", разноцв., бум., 100 шт/упак (ООО ФлексаПрин</t>
+  </si>
+  <si>
     <t>106387</t>
   </si>
   <si>
@@ -118,12 +274,66 @@
     <t>Контейнер 350 мл 1-секц. d140хh55 мм, без крышки, черн., ПП, 540 шт/кор (ТОО Аке Пласт)</t>
   </si>
   <si>
+    <t>107468</t>
+  </si>
+  <si>
+    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
+  </si>
+  <si>
     <t>110626</t>
   </si>
   <si>
     <t>Контейнер 1200 мл, 167х167х63 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
   </si>
   <si>
+    <t>191230</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d225 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>191220</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d172 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>191609</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>223592</t>
+  </si>
+  <si>
+    <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
+  </si>
+  <si>
+    <t>106863</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 200х80х60 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "O</t>
+  </si>
+  <si>
+    <t>112725</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>113289</t>
+  </si>
+  <si>
+    <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
+  </si>
+  <si>
+    <t>113306</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+  </si>
+  <si>
     <t>113368</t>
   </si>
   <si>
@@ -169,18 +379,66 @@
     <t>Крышка к контейнеру 178х178х13,5 мм, прозр., ПЭТ, 300 шт/кор "OSQ" OpSalad 1200</t>
   </si>
   <si>
+    <t>113757</t>
+  </si>
+  <si>
+    <t>Конверт [пакет] для столовых приборов 80х220 мм, крафт., бум., 2500 шт/упак (ООО Трейдпак)</t>
+  </si>
+  <si>
+    <t>113848</t>
+  </si>
+  <si>
+    <t>Освежитель воздуха "Flower shop" Апельсин и грейпфрут, аэрозоль, 300 мл</t>
+  </si>
+  <si>
+    <t>114506</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 120х120х70 мм, L, крафт-бел., карт., 60 шт/упак "OSQ"</t>
+  </si>
+  <si>
     <t>114508</t>
   </si>
   <si>
     <t>Упаковка [коробка] для сэндвичей 130х130х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/у</t>
   </si>
   <si>
+    <t>114531</t>
+  </si>
+  <si>
+    <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
+  </si>
+  <si>
+    <t>114815</t>
+  </si>
+  <si>
+    <t>Контейнер под запайку 840 мл, 1-секц. 187х137х50 мм, серия Фреш, черн., ПП, 40 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
     <t>114952</t>
   </si>
   <si>
     <t>Стакан бумажный 300 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
   </si>
   <si>
+    <t>114977</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115045</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые в инд. упаковке, 100 шт/упак (ООО ПК Ди</t>
+  </si>
+  <si>
+    <t>115207</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой в инд. упаковке, 100 ш</t>
+  </si>
+  <si>
     <t>115601</t>
   </si>
   <si>
@@ -191,6 +449,48 @@
   </si>
   <si>
     <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, зел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115717</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d5 мм, разноцв., пласт. с гофроизгибом, 250 шт/упак (ООО ПК Диапазон)</t>
+  </si>
+  <si>
+    <t>115784</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
+    <t>115786</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 300х400 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
+    <t>108362</t>
+  </si>
+  <si>
+    <t>Средство для удаления засоров щелочное "Profit" Scupper-Easy, флакон, 1000 мл</t>
+  </si>
+  <si>
+    <t>450743</t>
+  </si>
+  <si>
+    <t>Бумага туалетная 2-сл. "Focus" Optimum, бел., 22 м, 4 рул/упак</t>
+  </si>
+  <si>
+    <t>108394</t>
+  </si>
+  <si>
+    <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ "P.V.Ran"</t>
+  </si>
+  <si>
+    <t>109145</t>
+  </si>
+  <si>
+    <t>Фольга алюминиевая 44см х 100м, 14 мкм Особо прочная (ООО Металлпейпер-М)</t>
   </si>
   <si>
     <t>109414</t>
@@ -289,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -312,6 +612,9 @@
     <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -331,7 +634,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H25"/>
+  <dimension ref="H75"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -341,7 +644,7 @@
     <col min="2" max="2" width="18.66796875" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
     <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="9.33203125" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
     <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
@@ -397,7 +700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="11" customHeight="true">
+    <row r="3" ht="22" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -411,14 +714,14 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>119.44</v>
+        <v>66.45</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="6" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="true">
@@ -435,17 +738,17 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.48</v>
+        <v>59.67</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="7" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" ht="22" customHeight="true">
+      <c r="H4" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="11" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -459,17 +762,17 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29</v>
+        <v>92.85</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="7" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" ht="22" customHeight="true">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -483,17 +786,17 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>14</v>
+        <v>243.28</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
       <c r="H6" s="7" t="n">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="7" ht="22" customHeight="true">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" ht="11" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -507,14 +810,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>11</v>
+        <v>119.44</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
-      <c r="H7" s="7" t="n">
-        <v>3500</v>
+      <c r="H7" s="6" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="8" ht="22" customHeight="true">
@@ -531,17 +834,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>6</v>
+        <v>534.73</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="7" t="n">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="9" ht="11" customHeight="true">
+      <c r="H8" s="6" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -555,17 +858,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>14</v>
+        <v>421.91</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="7" t="n">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="10" ht="22" customHeight="true">
+      <c r="H9" s="6" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -578,18 +881,18 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>15</v>
+      <c r="E10" s="8" t="n">
+        <v>1461.58</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="11" ht="22" customHeight="true">
+      <c r="H10" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="true">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -603,17 +906,17 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>15.5</v>
+        <v>397</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="7" t="n">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="12" ht="22" customHeight="true">
+      <c r="H11" s="6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="11" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -626,15 +929,15 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>32.02</v>
+      <c r="E12" s="8" t="n">
+        <v>1126.88</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="6" t="n">
-        <v>600</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -650,15 +953,15 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v>16.52</v>
+      <c r="E13" s="8" t="n">
+        <v>1327.33</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="7" t="n">
-        <v>12000</v>
+      <c r="H13" s="6" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -675,14 +978,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>14.92</v>
+        <v>878.97</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="7" t="n">
-        <v>1000</v>
+      <c r="H14" s="6" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -699,17 +1002,17 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>20.14</v>
+        <v>648.79</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="7" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="16" ht="22" customHeight="true">
+      <c r="H15" s="6" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -723,17 +1026,17 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>18.29</v>
+        <v>90.12</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
-      <c r="H16" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" ht="22" customHeight="true">
+      <c r="H16" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" ht="11" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -747,14 +1050,14 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>17.73</v>
+        <v>263.1</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="7" t="n">
-        <v>1000</v>
+      <c r="H17" s="6" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="true">
@@ -771,17 +1074,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>17.66</v>
+        <v>6.3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19" ht="22" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -792,17 +1095,17 @@
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>8.56</v>
+        <v>20.65</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="7" t="n">
-        <v>3000</v>
+        <v>9490</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true">
@@ -813,23 +1116,23 @@
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>33.21</v>
+        <v>12.11</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="6" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" ht="22" customHeight="true">
+      <c r="H20" s="7" t="n">
+        <v>22650</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -837,23 +1140,23 @@
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>21.96</v>
+        <v>2.36</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="22" ht="22" customHeight="true">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -861,23 +1164,23 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>16.97</v>
+        <v>16.87</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -885,20 +1188,20 @@
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>8.6</v>
+        <v>18.87</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="7" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="true">
@@ -909,43 +1212,1231 @@
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>8.6</v>
+        <v>15.48</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="7" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" ht="11" customHeight="true">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="28" ht="22" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="7" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="7" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="7" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="7" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="7" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="7" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="7" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="36" ht="22" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="7" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="7" t="n">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="39" ht="22" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" ht="22" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" ht="22" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>706.56</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="7" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" ht="22" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>412.05</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="7" t="n">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="7" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="51" ht="22" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" ht="22" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="4" t="n">
+      <c r="E54" s="4" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="55" ht="11" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" ht="22" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="7" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>238.63</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" ht="22" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="7" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="59" ht="22" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="60" ht="22" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>287.68</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" ht="22" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="3" t="e"/>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="7" t="n">
+        <v>22080</v>
+      </c>
+    </row>
+    <row r="62" ht="22" customHeight="true">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="e"/>
+      <c r="H62" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="e"/>
+      <c r="H63" s="6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" ht="22" customHeight="true">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="3" t="e"/>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="e"/>
+      <c r="H64" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" ht="22" customHeight="true">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="3" t="e"/>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5" t="e"/>
+      <c r="H65" s="6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="e"/>
+      <c r="H66" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="true">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="e"/>
+      <c r="H67" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="68" ht="22" customHeight="true">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="3" t="e"/>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="e"/>
+      <c r="H68" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" ht="22" customHeight="true">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" s="3" t="e"/>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="e"/>
+      <c r="H69" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" ht="22" customHeight="true">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="3" t="e"/>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="e"/>
+      <c r="H70" s="6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="true">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>491.18</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="e"/>
+      <c r="H71" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>277.16</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="e"/>
+      <c r="H72" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true">
+      <c r="A73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="8" t="n">
+        <v>3957.89</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="e"/>
+      <c r="H73" s="6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" ht="11" customHeight="true">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="8" t="n">
+        <v>4174.05</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="e"/>
+      <c r="H74" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" s="4" t="n">
         <v>810</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="e"/>
-      <c r="H25" s="6" t="n">
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="e"/>
+      <c r="H75" s="6" t="n">
         <v>7</v>
       </c>
     </row>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Дата</t>
   </si>
@@ -49,27 +49,21 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>29.02.2024 0:00:00</t>
+    <t>02.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
   </si>
   <si>
-    <t>187160</t>
-  </si>
-  <si>
-    <t>Набор одноразовой посуды "Премиум чайный" [6 стак. 200 мл, ПП+6 тар. d167 мм, ПС+6 ч. лож.+6 вил.+6 </t>
+    <t>100024</t>
+  </si>
+  <si>
+    <t>Коробка для пиццы 300х300х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>100024</t>
-  </si>
-  <si>
-    <t>Коробка для пиццы 300х300х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
-  </si>
-  <si>
     <t>100027</t>
   </si>
   <si>
@@ -190,12 +184,6 @@
     <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
-    <t>103116</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
     <t>103127</t>
   </si>
   <si>
@@ -214,30 +202,6 @@
     <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>106917</t>
-  </si>
-  <si>
-    <t>Ведро пищевое 550 мл, d109хh79 мм, без ручки, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
-  </si>
-  <si>
-    <t>105397</t>
-  </si>
-  <si>
-    <t>Контейнер 750 мл 1-секц. 186х132х45 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Пласт</t>
-  </si>
-  <si>
-    <t>105451</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру для пресервов [ведру] d109 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
-  </si>
-  <si>
-    <t>106620</t>
-  </si>
-  <si>
-    <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ТОО Аке Пласт)</t>
-  </si>
-  <si>
     <t>501323</t>
   </si>
   <si>
@@ -256,36 +220,12 @@
     <t>Пакет для картофеля фри 140х110 мм, диз. "Рог изобилия", разноцв., бум., 100 шт/упак (ООО ФлексаПрин</t>
   </si>
   <si>
-    <t>106387</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру d140хh15 мм, прозр., ПП, 540 шт/кор (ТОО Аке Пласт)</t>
-  </si>
-  <si>
-    <t>106395</t>
-  </si>
-  <si>
-    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас</t>
-  </si>
-  <si>
-    <t>106412</t>
-  </si>
-  <si>
-    <t>Контейнер 350 мл 1-секц. d140хh55 мм, без крышки, черн., ПП, 540 шт/кор (ТОО Аке Пласт)</t>
-  </si>
-  <si>
     <t>107468</t>
   </si>
   <si>
     <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
   </si>
   <si>
-    <t>110626</t>
-  </si>
-  <si>
-    <t>Контейнер 1200 мл, 167х167х63 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
-  </si>
-  <si>
     <t>191230</t>
   </si>
   <si>
@@ -334,51 +274,6 @@
     <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
   </si>
   <si>
-    <t>113368</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113370</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113371</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113375</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113379</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113382</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113506</t>
-  </si>
-  <si>
-    <t>113710</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 178х178х13,5 мм, прозр., ПЭТ, 300 шт/кор "OSQ" OpSalad 1200</t>
-  </si>
-  <si>
     <t>113757</t>
   </si>
   <si>
@@ -415,12 +310,6 @@
     <t>Контейнер под запайку 840 мл, 1-секц. 187х137х50 мм, серия Фреш, черн., ПП, 40 шт/упак "Upax-Unity"</t>
   </si>
   <si>
-    <t>114952</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
     <t>114977</t>
   </si>
   <si>
@@ -439,18 +328,6 @@
     <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой в инд. упаковке, 100 ш</t>
   </si>
   <si>
-    <t>115601</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, оранж., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>115602</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, зел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
     <t>115717</t>
   </si>
   <si>
@@ -491,12 +368,6 @@
   </si>
   <si>
     <t>Фольга алюминиевая 44см х 100м, 14 мкм Особо прочная (ООО Металлпейпер-М)</t>
-  </si>
-  <si>
-    <t>109414</t>
-  </si>
-  <si>
-    <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
   </si>
 </sst>
 </file>
@@ -634,7 +505,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H75"/>
+  <dimension ref="H53"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -690,14 +561,14 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>151.4</v>
+        <v>66.45</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>15</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" ht="22" customHeight="true">
@@ -714,17 +585,17 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>66.45</v>
+        <v>59.67</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="6" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" ht="22" customHeight="true">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" ht="11" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -738,14 +609,14 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>59.67</v>
+        <v>92.85</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="6" t="n">
-        <v>50</v>
+      <c r="H4" s="7" t="n">
+        <v>4116</v>
       </c>
     </row>
     <row r="5" ht="11" customHeight="true">
@@ -762,14 +633,14 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>92.85</v>
+        <v>243.28</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="7" t="n">
-        <v>4116</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="6" ht="11" customHeight="true">
@@ -786,17 +657,17 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>243.28</v>
+        <v>119.44</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="7" t="n">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="7" ht="11" customHeight="true">
+      <c r="H6" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" ht="22" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -810,14 +681,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>119.44</v>
+        <v>534.73</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="6" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" ht="22" customHeight="true">
@@ -834,17 +705,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>534.73</v>
+        <v>421.91</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="6" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" ht="22" customHeight="true">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -857,15 +728,15 @@
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>421.91</v>
+      <c r="E9" s="8" t="n">
+        <v>1461.58</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="6" t="n">
-        <v>175</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -881,15 +752,15 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>1461.58</v>
+      <c r="E10" s="4" t="n">
+        <v>397</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
       <c r="H10" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -905,15 +776,15 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>397</v>
+      <c r="E11" s="8" t="n">
+        <v>1126.88</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
       <c r="H11" s="6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -930,14 +801,14 @@
         <v>32</v>
       </c>
       <c r="E12" s="8" t="n">
-        <v>1126.88</v>
+        <v>1327.33</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="6" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -953,15 +824,15 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8" t="n">
-        <v>1327.33</v>
+      <c r="E13" s="4" t="n">
+        <v>878.97</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
       <c r="H13" s="6" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -978,14 +849,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>878.97</v>
+        <v>648.79</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="6" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -1002,14 +873,14 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>648.79</v>
+        <v>90.12</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="6" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -1026,17 +897,17 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>90.12</v>
+        <v>263.1</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="6" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" ht="11" customHeight="true">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1050,17 +921,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>263.1</v>
+        <v>6.3</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="6" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" ht="22" customHeight="true">
+      <c r="H17" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1074,14 +945,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>6.3</v>
+        <v>20.65</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="7" t="n">
-        <v>10000</v>
+        <v>9490</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -1098,14 +969,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>20.65</v>
+        <v>12.11</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="7" t="n">
-        <v>9490</v>
+        <v>22650</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true">
@@ -1122,14 +993,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>12.11</v>
+        <v>2.36</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="7" t="n">
-        <v>22650</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true">
@@ -1146,14 +1017,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>2.36</v>
+        <v>16.87</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="7" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true">
@@ -1170,17 +1041,17 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>16.87</v>
+        <v>18.87</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1194,17 +1065,17 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>18.87</v>
+        <v>5.23</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="true">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1218,17 +1089,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>15.48</v>
+        <v>4.15</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="7" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="25" ht="22" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1242,17 +1113,17 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>5.23</v>
+        <v>2.02</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
       <c r="H25" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="true">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1266,17 +1137,17 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>4.15</v>
+        <v>13.41</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="27" ht="11" customHeight="true">
+      <c r="H26" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" ht="22" customHeight="true">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1290,14 +1161,14 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>2.02</v>
+        <v>4.09</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="7" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="28" ht="22" customHeight="true">
@@ -1314,17 +1185,17 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>29</v>
+        <v>5.09</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="7" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1338,14 +1209,14 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>14</v>
+        <v>5.37</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
       <c r="H29" s="7" t="n">
-        <v>11000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="30" ht="22" customHeight="true">
@@ -1362,14 +1233,14 @@
         <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>11</v>
+        <v>27.34</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="7" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="true">
@@ -1386,14 +1257,14 @@
         <v>70</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>6</v>
+        <v>18.35</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="7" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true">
@@ -1410,14 +1281,14 @@
         <v>72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>13.41</v>
+        <v>23.17</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
       <c r="H32" s="6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="true">
@@ -1434,14 +1305,14 @@
         <v>74</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>4.09</v>
+        <v>706.56</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="7" t="n">
-        <v>2500</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="true">
@@ -1458,17 +1329,17 @@
         <v>76</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>5.09</v>
+        <v>60.3</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
-      <c r="H34" s="7" t="n">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="35" ht="11" customHeight="true">
+      <c r="H34" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="true">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1482,17 +1353,17 @@
         <v>78</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>14</v>
+        <v>2.76</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
       <c r="H35" s="7" t="n">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="36" ht="22" customHeight="true">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1506,14 +1377,14 @@
         <v>80</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>15</v>
+        <v>412.05</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="7" t="n">
-        <v>12000</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="true">
@@ -1530,17 +1401,17 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>15.5</v>
+        <v>283.34</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
-      <c r="H37" s="7" t="n">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true">
+      <c r="H37" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" ht="22" customHeight="true">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1554,17 +1425,17 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>5.37</v>
+        <v>2.92</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="7" t="n">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="39" ht="22" customHeight="true">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1578,14 +1449,14 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>32.02</v>
+        <v>238.63</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
       <c r="H39" s="6" t="n">
-        <v>600</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="true">
@@ -1602,14 +1473,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>27.34</v>
+        <v>25.55</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
       <c r="H40" s="7" t="n">
-        <v>1000</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="true">
@@ -1626,14 +1497,14 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>18.35</v>
+        <v>21.96</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
       <c r="H41" s="7" t="n">
-        <v>1000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="true">
@@ -1650,14 +1521,14 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>23.17</v>
+        <v>287.68</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="6" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="true">
@@ -1673,15 +1544,13 @@
       <c r="D43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="4" t="n">
-        <v>706.56</v>
-      </c>
+      <c r="E43" s="3" t="e"/>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="7" t="n">
-        <v>1820</v>
+        <v>22080</v>
       </c>
     </row>
     <row r="44" ht="22" customHeight="true">
@@ -1698,14 +1567,14 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>60.3</v>
+        <v>417.95</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
       <c r="H44" s="6" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="true">
@@ -1721,18 +1590,16 @@
       <c r="D45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="4" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="E45" s="3" t="e"/>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
-      <c r="H45" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true">
+      <c r="H45" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" ht="22" customHeight="true">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1745,15 +1612,13 @@
       <c r="D46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="4" t="n">
-        <v>412.05</v>
-      </c>
+      <c r="E46" s="3" t="e"/>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
-      <c r="H46" s="7" t="n">
-        <v>1215</v>
+      <c r="H46" s="6" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="22" customHeight="true">
@@ -1769,18 +1634,16 @@
       <c r="D47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <v>283.34</v>
-      </c>
+      <c r="E47" s="3" t="e"/>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
       <c r="H47" s="6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" ht="22" customHeight="true">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1793,18 +1656,16 @@
       <c r="D48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="4" t="n">
-        <v>16.52</v>
-      </c>
+      <c r="E48" s="3" t="e"/>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
-      <c r="H48" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
+      <c r="H48" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1817,15 +1678,13 @@
       <c r="D49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="4" t="n">
-        <v>14.92</v>
-      </c>
+      <c r="E49" s="3" t="e"/>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
-      <c r="H49" s="7" t="n">
-        <v>1000</v>
+      <c r="H49" s="6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true">
@@ -1842,17 +1701,17 @@
         <v>108</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>20.14</v>
+        <v>491.18</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
-      <c r="H50" s="7" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="51" ht="22" customHeight="true">
+      <c r="H50" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1866,17 +1725,17 @@
         <v>110</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>18.29</v>
+        <v>277.16</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
-      <c r="H51" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" ht="22" customHeight="true">
+      <c r="H51" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1889,18 +1748,18 @@
       <c r="D52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="4" t="n">
-        <v>17.73</v>
+      <c r="E52" s="8" t="n">
+        <v>3957.89</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
-      <c r="H52" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" ht="22" customHeight="true">
+      <c r="H52" s="6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -1913,531 +1772,15 @@
       <c r="D53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="4" t="n">
-        <v>17.66</v>
+      <c r="E53" s="8" t="n">
+        <v>4174.05</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
-      <c r="H53" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="54" ht="22" customHeight="true">
-      <c r="A54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="5" t="e"/>
-      <c r="H54" s="7" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="55" ht="11" customHeight="true">
-      <c r="A55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="4" t="n">
-        <v>33.21</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5" t="e"/>
-      <c r="H55" s="6" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="56" ht="22" customHeight="true">
-      <c r="A56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="5" t="e"/>
-      <c r="H56" s="7" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="57" ht="11" customHeight="true">
-      <c r="A57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="4" t="n">
-        <v>238.63</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="5" t="e"/>
-      <c r="H57" s="6" t="n">
+      <c r="H53" s="6" t="n">
         <v>24</v>
-      </c>
-    </row>
-    <row r="58" ht="22" customHeight="true">
-      <c r="A58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="5" t="e"/>
-      <c r="H58" s="7" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="59" ht="22" customHeight="true">
-      <c r="A59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="4" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="5" t="e"/>
-      <c r="H59" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="60" ht="22" customHeight="true">
-      <c r="A60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>287.68</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="5" t="e"/>
-      <c r="H60" s="6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true">
-      <c r="A61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="3" t="e"/>
-      <c r="F61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="5" t="e"/>
-      <c r="H61" s="7" t="n">
-        <v>22080</v>
-      </c>
-    </row>
-    <row r="62" ht="22" customHeight="true">
-      <c r="A62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="4" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="5" t="e"/>
-      <c r="H62" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" ht="22" customHeight="true">
-      <c r="A63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="4" t="n">
-        <v>417.95</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="5" t="e"/>
-      <c r="H63" s="6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" ht="22" customHeight="true">
-      <c r="A64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" s="3" t="e"/>
-      <c r="F64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="5" t="e"/>
-      <c r="H64" s="6" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" ht="22" customHeight="true">
-      <c r="A65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" s="3" t="e"/>
-      <c r="F65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="5" t="e"/>
-      <c r="H65" s="6" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" ht="22" customHeight="true">
-      <c r="A66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="5" t="e"/>
-      <c r="H66" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="67" ht="22" customHeight="true">
-      <c r="A67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="5" t="e"/>
-      <c r="H67" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="68" ht="22" customHeight="true">
-      <c r="A68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E68" s="3" t="e"/>
-      <c r="F68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="5" t="e"/>
-      <c r="H68" s="6" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" ht="22" customHeight="true">
-      <c r="A69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E69" s="3" t="e"/>
-      <c r="F69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="5" t="e"/>
-      <c r="H69" s="6" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" ht="22" customHeight="true">
-      <c r="A70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" s="3" t="e"/>
-      <c r="F70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="5" t="e"/>
-      <c r="H70" s="6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" ht="11" customHeight="true">
-      <c r="A71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E71" s="4" t="n">
-        <v>491.18</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="5" t="e"/>
-      <c r="H71" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true">
-      <c r="A72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="4" t="n">
-        <v>277.16</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="5" t="e"/>
-      <c r="H72" s="6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" ht="11" customHeight="true">
-      <c r="A73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="8" t="n">
-        <v>3957.89</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="5" t="e"/>
-      <c r="H73" s="6" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" ht="11" customHeight="true">
-      <c r="A74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="8" t="n">
-        <v>4174.05</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="5" t="e"/>
-      <c r="H74" s="6" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" ht="11" customHeight="true">
-      <c r="A75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <v>810</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="5" t="e"/>
-      <c r="H75" s="6" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>06.03.2024 0:00:00</t>
+    <t>08.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Вилка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114921</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>114952</t>
@@ -334,7 +340,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H25"/>
+  <dimension ref="H26"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -781,7 +787,7 @@
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="7" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="true">
@@ -880,7 +886,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="23" ht="22" customHeight="true">
+    <row r="23" ht="11" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -894,14 +900,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>16.97</v>
+        <v>7.08</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="7" t="n">
-        <v>4000</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="true">
@@ -918,17 +924,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>3.26</v>
+        <v>16.97</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="7" t="n">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -942,13 +948,37 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="7" t="n">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
         <v>98.25</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="e"/>
-      <c r="H25" s="6" t="n">
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="6" t="n">
         <v>100</v>
       </c>
     </row>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killr\OneDrive\Рабочий стол\ASIA STOCKS\Asia stock management\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892"/>
   </bookViews>
   <sheets>
-    <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>Дата</t>
   </si>
@@ -49,59 +45,149 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>13.03.2024 0:00:00</t>
+    <t>16.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
   </si>
   <si>
+    <t>103896</t>
+  </si>
+  <si>
+    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>279508</t>
+  </si>
+  <si>
+    <t>Чековая лента 57мм х 25м, d12 мм, бел., термобум. "Честный чек"</t>
+  </si>
+  <si>
+    <t>105654</t>
+  </si>
+  <si>
+    <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
+  </si>
+  <si>
+    <t>102853</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ)</t>
+  </si>
+  <si>
+    <t>104280</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+  </si>
+  <si>
+    <t>120100</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>106101</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 170х150 мм, диз. "Food`корт", разноцв., бум., 1000 шт/кор (ООО Фл</t>
+  </si>
+  <si>
+    <t>108012</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>223592</t>
+  </si>
+  <si>
+    <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
+  </si>
+  <si>
+    <t>111884</t>
+  </si>
+  <si>
+    <t>Крышка для формы алюм. 140х115 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
+  </si>
+  <si>
+    <t>112413</t>
+  </si>
+  <si>
+    <t>Форма алюминиевая 1-секц. 1125 мл 225х175х35 мм, без крышки, алюм., 50 шт/упак (ООО Русал)</t>
+  </si>
+  <si>
+    <t>112788</t>
+  </si>
+  <si>
+    <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>113504</t>
   </si>
   <si>
     <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
-    <t>Нет</t>
+    <t>114232</t>
+  </si>
+  <si>
+    <t>Форма алюминиевая 1-секц. 430 мл 144х119х40 мм, без крышки, алюм., 50 шт/упак (ООО Русал)</t>
+  </si>
+  <si>
+    <t>114532</t>
+  </si>
+  <si>
+    <t>Губка поролоновая для посуды 90х60х25 мм Стандарт, цвет в ассорт., 5 шт/упак (ООО ПФ Прайд)</t>
   </si>
   <si>
     <t>114921</t>
   </si>
   <si>
     <t>Ложка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114977</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115627</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d5 мм, черн., пласт. с гофроизгибом, 250 шт/упак (ООО ПК Диапазон)</t>
+  </si>
+  <si>
+    <t>115916</t>
+  </si>
+  <si>
+    <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак "Aerosnab"</t>
+  </si>
+  <si>
+    <t>115930</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, лого "Jеti Таndiz", стик, 2000 шт/кор (ТОО Компания Ника-2000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="50" formatCode=""/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <sz val="8"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <family val="0"/>
-      <b val="true"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="FFFFFF"/>
-      <sz val="10"/>
-      <u val="none"/>
     </font>
   </fonts>
   <fills count="3">
@@ -113,8 +199,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="4574A0"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FF4574A0"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -128,31 +214,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="BDC7EB"/>
+        <color rgb="FFBDC7EB"/>
       </left>
       <right style="thin">
-        <color rgb="BDC7EB"/>
+        <color rgb="FFBDC7EB"/>
       </right>
       <top style="thin">
-        <color rgb="BDC7EB"/>
+        <color rgb="FFBDC7EB"/>
       </top>
       <bottom style="thin">
-        <color rgb="BDC7EB"/>
+        <color rgb="FFBDC7EB"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="7D8AB9"/>
+        <color rgb="FF7D8AB9"/>
       </left>
       <right style="thin">
-        <color rgb="7D8AB9"/>
+        <color rgb="FF7D8AB9"/>
       </right>
       <top style="thin">
-        <color rgb="7D8AB9"/>
+        <color rgb="FF7D8AB9"/>
       </top>
       <bottom style="thin">
-        <color rgb="7D8AB9"/>
+        <color rgb="FF7D8AB9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -160,25 +246,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="0" fontId="0" applyAlignment="true">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,37 +287,329 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-    <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="H3"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="18.66796875" style="1" customWidth="true"/>
-    <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
-    <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="8.33203125" style="1" customWidth="true"/>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="72.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="true">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -225,24 +618,25 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="true">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -251,22 +645,23 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="e"/>
-      <c r="H2" s="6" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" ht="11" customHeight="true">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="4">
+        <v>92.85</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -275,26 +670,492 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="10"/>
+      <c r="F3" s="4">
+        <v>86.56</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4">
+        <v>243.28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4">
+        <v>20.65</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4">
+        <v>9.06</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="22.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4">
+        <v>7.39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4">
+        <v>706.56</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="22.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4">
+        <v>31.31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4">
+        <v>9.31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="22.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4">
+        <v>101.22</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4">
         <v>7.08</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="e"/>
-      <c r="H3" s="6" t="n">
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6">
         <v>4250</v>
       </c>
     </row>
+    <row r="18" spans="1:9" ht="22.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4">
+        <v>417.95</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="22.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4">
+        <v>207.51</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4">
+        <v>9.68</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6">
+        <v>350000</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
-  <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>
-  <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId5"/>
+  <mergeCells count="21">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Дата</t>
   </si>
@@ -47,6 +47,75 @@
   </si>
   <si>
     <t>Кон ост</t>
+  </si>
+  <si>
+    <t>25.03.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Шымкент в Пути</t>
+  </si>
+  <si>
+    <t>106916</t>
+  </si>
+  <si>
+    <t>Ведро пищевое 850 мл, d109хh124 мм, с ручкой, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>106917</t>
+  </si>
+  <si>
+    <t>Ведро пищевое 550 мл, d109хh79 мм, без ручки, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>102647</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц., овал 125х125х60 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>105397</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл 1-секц. 186х132х45 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Пласт</t>
+  </si>
+  <si>
+    <t>105451</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру для пресервов [ведру] d109 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>106386</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 186х132х8 мм, прозр., ПП, 500 шт/кор (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>106389</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>106390</t>
+  </si>
+  <si>
+    <t>Контейнер 350 мл 1-секц., овал 155х125х45 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>106395</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>106396</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, черн., ПП, 500 шт/кор (ТОО Аке Пласт</t>
   </si>
 </sst>
 </file>
@@ -97,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,17 +189,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="7D8AB9"/>
+      </left>
+      <right style="thin">
+        <color rgb="7D8AB9"/>
+      </right>
+      <top style="thin">
+        <color rgb="7D8AB9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="7D8AB9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,20 +247,20 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H1"/>
+  <dimension ref="H11"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="18.66796875" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="true"/>
+    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="6.66796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -191,6 +287,246 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="e"/>
+      <c r="H2" s="6" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" ht="23" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="6" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" ht="23" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="e"/>
+      <c r="H4" s="6" t="n">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="e"/>
+      <c r="H5" s="6" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="e"/>
+      <c r="H6" s="6" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" ht="11" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="e"/>
+      <c r="H7" s="6" t="n">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="6" t="n">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="6" t="n">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="6" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="6" t="n">
+        <v>8500</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Дата</t>
   </si>
@@ -49,73 +49,169 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>25.03.2024 0:00:00</t>
+    <t>28.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
   </si>
   <si>
-    <t>106916</t>
-  </si>
-  <si>
-    <t>Ведро пищевое 850 мл, d109хh124 мм, с ручкой, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+    <t>187320</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Пикник Мистерия" [12 стак. 200 мл, ПП+12 тар. d205 мм, ПС+12 вил.]</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>106917</t>
-  </si>
-  <si>
-    <t>Ведро пищевое 550 мл, d109хh79 мм, без ручки, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
-  </si>
-  <si>
-    <t>102647</t>
-  </si>
-  <si>
-    <t>Контейнер 500 мл 1-секц., овал 125х125х60 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
-  </si>
-  <si>
-    <t>105397</t>
-  </si>
-  <si>
-    <t>Контейнер 750 мл 1-секц. 186х132х45 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Пласт</t>
-  </si>
-  <si>
-    <t>105451</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру для пресервов [ведру] d109 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
-  </si>
-  <si>
-    <t>106386</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 186х132х8 мм, прозр., ПП, 500 шт/кор (ТОО Аке Пласт)</t>
-  </si>
-  <si>
-    <t>106389</t>
-  </si>
-  <si>
-    <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
-  </si>
-  <si>
-    <t>106390</t>
-  </si>
-  <si>
-    <t>Контейнер 350 мл 1-секц., овал 155х125х45 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
-  </si>
-  <si>
-    <t>106395</t>
-  </si>
-  <si>
-    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас</t>
-  </si>
-  <si>
-    <t>106396</t>
-  </si>
-  <si>
-    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, черн., ПП, 500 шт/кор (ТОО Аке Пласт</t>
+    <t>101043</t>
+  </si>
+  <si>
+    <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>101300</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 240 л, [70+20]х140 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>102186</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>307973</t>
+  </si>
+  <si>
+    <t>Салфетки ажурные d260 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+  </si>
+  <si>
+    <t>307974</t>
+  </si>
+  <si>
+    <t>Салфетки ажурные d280 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+  </si>
+  <si>
+    <t>270126</t>
+  </si>
+  <si>
+    <t>Бумага для выпечки силикон. в рулоне 380мм х 25м, коричн. "Nordic EBG"</t>
+  </si>
+  <si>
+    <t>102855</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
+  </si>
+  <si>
+    <t>104280</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+  </si>
+  <si>
+    <t>141080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>103535</t>
+  </si>
+  <si>
+    <t>Размешиватель 120 мм, бел., ПС, 500 шт/упак (ООО РТС)</t>
+  </si>
+  <si>
+    <t>120100</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>123250</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>104098</t>
+  </si>
+  <si>
+    <t>Средство для удаления известкового налета и ржавчины "Pro-Brite" Alfa-Gel, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>159497</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х8 мм, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+  </si>
+  <si>
+    <t>106096</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф</t>
+  </si>
+  <si>
+    <t>106101</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 170х150 мм, диз. "Food`корт", разноцв., бум., 1000 шт/кор (ООО Фл</t>
+  </si>
+  <si>
+    <t>107468</t>
+  </si>
+  <si>
+    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
+  </si>
+  <si>
+    <t>191230</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d225 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>183040</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>223592</t>
+  </si>
+  <si>
+    <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
+  </si>
+  <si>
+    <t>112413</t>
+  </si>
+  <si>
+    <t>Форма алюминиевая 1-секц. 1125 мл 225х175х35 мм, без крышки, алюм., 50 шт/упак (ООО Русал)</t>
+  </si>
+  <si>
+    <t>112725</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>113306</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+  </si>
+  <si>
+    <t>114531</t>
+  </si>
+  <si>
+    <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
+  </si>
+  <si>
+    <t>108394</t>
+  </si>
+  <si>
+    <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ "P.V.Ran"</t>
   </si>
 </sst>
 </file>
@@ -208,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -225,8 +321,14 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
     <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,7 +349,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H11"/>
+  <dimension ref="H27"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -257,10 +359,10 @@
     <col min="2" max="2" width="18.66796875" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
     <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -303,17 +405,17 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42</v>
+        <v>243.64</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3" ht="23" customHeight="true">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" ht="11" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -327,14 +429,14 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29</v>
+        <v>53.77</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="6" t="n">
-        <v>9000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="23" customHeight="true">
@@ -351,14 +453,14 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.5</v>
+        <v>534.78</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="6" t="n">
-        <v>6300</v>
+      <c r="H4" s="7" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="true">
@@ -375,17 +477,17 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14</v>
+        <v>421.91</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="6" ht="23" customHeight="true">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -399,14 +501,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>11</v>
+        <v>920.67</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
       <c r="H6" s="6" t="n">
-        <v>15000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="11" customHeight="true">
@@ -422,18 +524,18 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>9</v>
+      <c r="E7" s="8" t="n">
+        <v>1086.12</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="6" t="n">
-        <v>50500</v>
-      </c>
-    </row>
-    <row r="8" ht="23" customHeight="true">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="11" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -447,17 +549,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>14.5</v>
+        <v>648.79</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="6" t="n">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="9" ht="23" customHeight="true">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -471,17 +573,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>15.5</v>
+        <v>12.11</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="6" t="n">
-        <v>10920</v>
-      </c>
-    </row>
-    <row r="10" ht="23" customHeight="true">
+      <c r="H9" s="7" t="n">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -495,17 +597,17 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>15</v>
+        <v>2.96</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="6" t="n">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="11" ht="23" customHeight="true">
+      <c r="H10" s="7" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="true">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -519,14 +621,398 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="6" t="n">
-        <v>8500</v>
+      <c r="H11" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" ht="11" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" ht="11" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>9.12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="7" t="n">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="7" t="n">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>3207.52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="7" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="7" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="7" t="n">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="6" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>706.56</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" ht="23" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>32.73</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="6" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" ht="23" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>287.72</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>3957.83</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="6" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>28.03.2024 0:00:00</t>
+    <t>29.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Дата</t>
   </si>
@@ -47,6 +47,57 @@
   </si>
   <si>
     <t>Кон ост</t>
+  </si>
+  <si>
+    <t>08.04.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Шымкент в Пути</t>
+  </si>
+  <si>
+    <t>102647</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц., овал 155х125х60 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>105397</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл 1-секц. 186х132х45 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Пласт</t>
+  </si>
+  <si>
+    <t>106386</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 186х132х8 мм, прозр., ПП, 500 шт/кор (ТОО Аке Пласт)</t>
+  </si>
+  <si>
+    <t>106389</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>106395</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>106396</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, черн., ПП, 500 шт/кор (ТОО Аке Пласт</t>
+  </si>
+  <si>
+    <t>105386</t>
+  </si>
+  <si>
+    <t>Соусник 80 мл, d71,5хh34 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ТОО Аке Пласт)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,17 +171,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="7D8AB9"/>
+      </left>
+      <right style="thin">
+        <color rgb="7D8AB9"/>
+      </right>
+      <top style="thin">
+        <color rgb="7D8AB9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="7D8AB9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,20 +232,20 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H1"/>
+  <dimension ref="H8"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="18.66796875" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="true"/>
+    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="6.66796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -191,6 +272,174 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="e"/>
+      <c r="H2" s="6" t="n">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="3" ht="23" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="6" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" ht="11" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="e"/>
+      <c r="H4" s="6" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="e"/>
+      <c r="H5" s="6" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="e"/>
+      <c r="H6" s="6" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="e"/>
+      <c r="H7" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="7" t="n">
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Дата</t>
   </si>
@@ -49,55 +49,217 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>08.04.2024 0:00:00</t>
+    <t>12.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
   </si>
   <si>
-    <t>102647</t>
-  </si>
-  <si>
-    <t>Контейнер 500 мл 1-секц., овал 155х125х60 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+    <t>187320</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Пикник Мистерия" [12 стак. 200 мл, ПП+12 тар. d205 мм, ПС+12 вил.]</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>105397</t>
-  </si>
-  <si>
-    <t>Контейнер 750 мл 1-секц. 186х132х45 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Пласт</t>
-  </si>
-  <si>
-    <t>106386</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 186х132х8 мм, прозр., ПП, 500 шт/кор (ТОО Аке Пласт)</t>
-  </si>
-  <si>
-    <t>106389</t>
-  </si>
-  <si>
-    <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
-  </si>
-  <si>
-    <t>106395</t>
-  </si>
-  <si>
-    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас</t>
-  </si>
-  <si>
-    <t>106396</t>
-  </si>
-  <si>
-    <t>Контейнер 1000 мл 1-секц. 186х132х62 мм, серия 186, без крышки, черн., ПП, 500 шт/кор (ТОО Аке Пласт</t>
-  </si>
-  <si>
-    <t>105386</t>
-  </si>
-  <si>
-    <t>Соусник 80 мл, d71,5хh34 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ТОО Аке Пласт)</t>
+    <t>187050</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Пикничок" [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+ 6 нож.+6 салф.]</t>
+  </si>
+  <si>
+    <t>187011</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды для пикника [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+6 салф.]</t>
+  </si>
+  <si>
+    <t>100606</t>
+  </si>
+  <si>
+    <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, желт., 400 шт/кор (ООО ОНМ)</t>
+  </si>
+  <si>
+    <t>100665</t>
+  </si>
+  <si>
+    <t>Пленка пищевая 300мм х 200м 7 мкм, прозр., ПЭ (ООО ДПЗ)</t>
+  </si>
+  <si>
+    <t>101043</t>
+  </si>
+  <si>
+    <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>101300</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 240 л, [70+20]х140 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>102186</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>307971</t>
+  </si>
+  <si>
+    <t>Салфетки ажурные d220 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+  </si>
+  <si>
+    <t>307973</t>
+  </si>
+  <si>
+    <t>Салфетки ажурные d260 мм, бел., бум., 250 шт/упак (ООО Бэндерс РС)</t>
+  </si>
+  <si>
+    <t>451423</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные 2-сл., бел., 10 м, 2 рул/упак "Familia" Радуга</t>
+  </si>
+  <si>
+    <t>102853</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ)</t>
+  </si>
+  <si>
+    <t>100120</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+  </si>
+  <si>
+    <t>115324</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>102588</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115323</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115417</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115416</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>143080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>120100</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>123250</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>106101</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 170х150 мм, диз. "Food`корт", разноцв., бум., 1000 шт/кор (ООО Фл</t>
+  </si>
+  <si>
+    <t>110677</t>
+  </si>
+  <si>
+    <t>Пакет для картофеля фри 140х110 мм, диз. "Рог изобилия", разноцв., бум., 100 шт/упак (ООО ФлексаПрин</t>
+  </si>
+  <si>
+    <t>104963</t>
+  </si>
+  <si>
+    <t>Пакет [220+120]х250 мм с плоск. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>345044</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>254501</t>
+  </si>
+  <si>
+    <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
+  </si>
+  <si>
+    <t>104795</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 160х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
+    <t>111613</t>
+  </si>
+  <si>
+    <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>111801</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые, 250 шт/упак (ООО Экстралайн)</t>
+  </si>
+  <si>
+    <t>113569</t>
+  </si>
+  <si>
+    <t>Пакет [320+200]х370 мм с круч. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>114812</t>
+  </si>
+  <si>
+    <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Вита Групп)</t>
+  </si>
+  <si>
+    <t>108394</t>
+  </si>
+  <si>
+    <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ "P.V.Ran"</t>
+  </si>
+  <si>
+    <t>301026</t>
+  </si>
+  <si>
+    <t>Салфетки 240х200 мм 1-сл., бел., бум., 100 шт/упак "Focus" Economic Choice</t>
+  </si>
+  <si>
+    <t>109145</t>
+  </si>
+  <si>
+    <t>Фольга алюминиевая 44см х 100м, 14 мкм Особо прочная (ООО Металлпейпер-М)</t>
   </si>
 </sst>
 </file>
@@ -190,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -207,11 +369,14 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
     <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -232,7 +397,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H8"/>
+  <dimension ref="H35"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -242,10 +407,10 @@
     <col min="2" max="2" width="18.66796875" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
     <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -288,14 +453,14 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16.5</v>
+        <v>243.64</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>11340</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" ht="23" customHeight="true">
@@ -312,17 +477,17 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14</v>
+        <v>173.22</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
-      <c r="H3" s="6" t="n">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" ht="11" customHeight="true">
+      <c r="H3" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" ht="23" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -336,17 +501,17 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9</v>
+        <v>165.96</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
       <c r="H4" s="6" t="n">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="5" ht="23" customHeight="true">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" ht="11" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -360,17 +525,17 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.5</v>
+        <v>65.8</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
-      <c r="H5" s="6" t="n">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="6" ht="23" customHeight="true">
+      <c r="H5" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -384,17 +549,17 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>15</v>
+        <v>241.79</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
       <c r="H6" s="6" t="n">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="7" ht="23" customHeight="true">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" ht="11" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -408,14 +573,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15</v>
+        <v>53.77</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="6" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="true">
@@ -432,14 +597,662 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>10</v>
+        <v>534.78</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="7" t="n">
-        <v>960</v>
+      <c r="H8" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>421.91</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>610.06</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="6" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>920.67</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" ht="11" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="6" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" ht="11" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="7" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="7" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="7" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" ht="11" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="7" t="n">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>9.12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="7" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="7" t="n">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="23" ht="23" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="7" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" ht="23" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1554.83</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="6" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>335.34</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>40.49</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="7" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>3957.83</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="6" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>3704.8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="6" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>18.04.2024 0:00:00</t>
+    <t>22.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
@@ -76,22 +76,178 @@
     <t>Контейнер для пресервов 360 мл, d112хh55 мм, форма "Банка", крышка в компл., прозр., ПП, 216 шт/кор </t>
   </si>
   <si>
+    <t>104834</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 155х110х13,5 мм, прозр., ПЭТ, 800 шт/кор "OSQ" OpSalad 400/450</t>
+  </si>
+  <si>
     <t>501323</t>
   </si>
   <si>
     <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
   </si>
   <si>
+    <t>110619</t>
+  </si>
+  <si>
+    <t>Упаковка [коробка] для сэндвичей 130х130х50 мм, с окном, неразъем.крышка, крафт, карт., 50 шт/упак "</t>
+  </si>
+  <si>
     <t>106056</t>
   </si>
   <si>
     <t>Упаковка для сэндвичей треуг. 187х80х82[170х70х76] мм, неразъем.крышка, прозр., ПЭТ, 80 шт/упак (ООО</t>
   </si>
   <si>
+    <t>106366</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 142х142х56 мм, прозр., ПЭТ, 50 шт/упак "OSQ" LidSmartPack 550</t>
+  </si>
+  <si>
     <t>107468</t>
   </si>
   <si>
     <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
+  </si>
+  <si>
+    <t>111451</t>
+  </si>
+  <si>
+    <t>Коробка для наггетсов 150х91х70 мм, L, крафт-бел., карт., 25 шт/упак "OSQ" Eco Fast Food Box</t>
+  </si>
+  <si>
+    <t>111452</t>
+  </si>
+  <si>
+    <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
+  </si>
+  <si>
+    <t>111501</t>
+  </si>
+  <si>
+    <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, крафт, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
+  </si>
+  <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112636</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл, d150хh60 мм, без окна, без крышки, крафт-бел., карт., 45 шт/упак "OSQ" Round Bowl </t>
+  </si>
+  <si>
+    <t>112637</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d150хh40 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl flat lid</t>
+  </si>
+  <si>
+    <t>112638</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. d150хh38 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl dome lid</t>
+  </si>
+  <si>
+    <t>112822</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d100хh10 мм, прозр., ПП, 25 шт/упак "OSQ" Round Bowl PP lid</t>
+  </si>
+  <si>
+    <t>113711</t>
+  </si>
+  <si>
+    <t>Коробка для лапши 900 мл, 165х130х50 мм, крафт, карт., 60 шт/упак "OSQ" Eco Fold Box</t>
+  </si>
+  <si>
+    <t>113910</t>
+  </si>
+  <si>
+    <t>Супница 400 мл, d100хh85 мм, без крышки, крафт-бел., карт., 25 шт/упак "OSQ" Round Bowl</t>
+  </si>
+  <si>
+    <t>114003</t>
+  </si>
+  <si>
+    <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad B</t>
+  </si>
+  <si>
+    <t>114004</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-черн., карт., 600 шт/кор "OSQ" OpSalad </t>
+  </si>
+  <si>
+    <t>114019</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 90х180х50 мм, крафт-бел., карт., 450 шт/кор "OSQ" Eco CupHolder double</t>
+  </si>
+  <si>
+    <t>114506</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 120х120х70 мм, L, крафт-бел., карт., 60 шт/упак "OSQ"</t>
+  </si>
+  <si>
+    <t>114520</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл, d150хh77 мм, без окна, без крышки, крафт-бел., карт., 45 шт/упак "OSQ" Round Bowl</t>
+  </si>
+  <si>
+    <t>114525</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d188хh17 мм, прозр., ПЭТ, 35 шт/упак "OSQ" Round Bowl 1300 flat lid</t>
+  </si>
+  <si>
+    <t>115546</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d230 мм, бел., карт., 100 шт/упак "OSQ" Plate 230 WB</t>
+  </si>
+  <si>
+    <t>115692</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d180 мм, бел., карт, 100 шт/упак "OSQ" Plate 180 WB</t>
+  </si>
+  <si>
+    <t>115755</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 165х170 мм, диз. "Global coffee Космос", бел., бум., 2000 шт/кор </t>
+  </si>
+  <si>
+    <t>115758</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 165х170 мм, диз. "Global coffee Действуй", бел., бум., 2000 шт/ко</t>
+  </si>
+  <si>
+    <t>116019</t>
+  </si>
+  <si>
+    <t>Коробка для лапши 560 мл, 104х90х102 мм, L, крафт, карт., 35 шт/упак "OSQ" Eco Noodles</t>
+  </si>
+  <si>
+    <t>116314</t>
+  </si>
+  <si>
+    <t>Контейнер 450 мл, 144х96х55 мм, без окна, без крышки, крафт-бел., карт., 800 шт/кор "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>116315</t>
+  </si>
+  <si>
+    <t>Контейнер 1300 мл, d185хh70 мм, без окна, без крышки, бел., карт., 35 шт/упак "OSQ" Round Bowl white</t>
   </si>
 </sst>
 </file>
@@ -223,7 +379,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H7"/>
+  <dimension ref="H33"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -351,14 +507,14 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.41</v>
+        <v>15.28</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>45000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="true">
@@ -375,17 +531,17 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>26.7</v>
+        <v>13.41</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
       <c r="H6" s="6" t="n">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="7" ht="11" customHeight="true">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -399,14 +555,626 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5.5</v>
+        <v>25.01</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="6" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="6" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="6" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="6" t="n">
         <v>40500</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="6" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" ht="23" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="6" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="6" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="6" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="6" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="6" t="n">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="6" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3" t="e"/>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="6" t="n">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="6" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="6" t="n">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="6" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="6" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" ht="23" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="6" t="n">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="6" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="6" t="n">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="26" ht="23" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="6" t="n">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="6" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="6" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="3" t="e"/>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="6" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="3" t="e"/>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="6" t="n">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="31" ht="23" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="3" t="e"/>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="6" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="32" ht="23" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="3" t="e"/>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="6" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="3" t="e"/>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="6" t="n">
+        <v>23100</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>22.04.2024 0:00:00</t>
+    <t>25.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
@@ -166,6 +166,12 @@
     <t>Коробка для лапши 900 мл, 165х130х50 мм, крафт, карт., 60 шт/упак "OSQ" Eco Fold Box</t>
   </si>
   <si>
+    <t>113902</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 500 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
     <t>113910</t>
   </si>
   <si>
@@ -206,6 +212,18 @@
   </si>
   <si>
     <t>Крышка к контейнеру d188хh17 мм, прозр., ПЭТ, 35 шт/упак "OSQ" Round Bowl 1300 flat lid</t>
+  </si>
+  <si>
+    <t>114914</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 375 мл, диз. "Bubble Cup", прозр., ПП, 25 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115072</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 500 мл, диз. "Bubble Cup", прозр., ПП, 20 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>115546</t>
@@ -340,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -358,6 +376,9 @@
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -379,7 +400,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H33"/>
+  <dimension ref="H36"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -851,7 +872,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" ht="23" customHeight="true">
+    <row r="20" ht="11" customHeight="true">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -865,14 +886,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>21.37</v>
+        <v>21.55</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="6" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="true">
@@ -889,14 +910,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>18.69</v>
+        <v>21.37</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="6" t="n">
-        <v>80000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="true">
@@ -913,14 +934,14 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>24.46</v>
+        <v>18.69</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="6" t="n">
-        <v>6000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="true">
@@ -937,14 +958,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>20.02</v>
+        <v>24.46</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="6" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="true">
@@ -961,14 +982,14 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>25.55</v>
+        <v>20.02</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="6" t="n">
-        <v>2400</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="true">
@@ -985,14 +1006,14 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>30</v>
+        <v>25.55</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
       <c r="H25" s="6" t="n">
-        <v>40500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="true">
@@ -1009,17 +1030,17 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>35.7</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
       <c r="H26" s="6" t="n">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="27" ht="11" customHeight="true">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="27" ht="23" customHeight="true">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1033,14 +1054,14 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>17.12</v>
+        <v>35.7</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="6" t="n">
-        <v>1600</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true">
@@ -1057,17 +1078,17 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>9.25</v>
+        <v>26.61</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
-      <c r="H28" s="6" t="n">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="29" ht="23" customHeight="true">
+      <c r="H28" s="7" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1080,16 +1101,18 @@
       <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="3" t="e"/>
+      <c r="E29" s="4" t="n">
+        <v>25.36</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
       <c r="H29" s="6" t="n">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="30" ht="23" customHeight="true">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1102,16 +1125,18 @@
       <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="3" t="e"/>
+      <c r="E30" s="4" t="n">
+        <v>17.12</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="6" t="n">
-        <v>94000</v>
-      </c>
-    </row>
-    <row r="31" ht="23" customHeight="true">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1124,13 +1149,15 @@
       <c r="D31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="3" t="e"/>
+      <c r="E31" s="4" t="n">
+        <v>9.25</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="6" t="n">
-        <v>1680</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="32" ht="23" customHeight="true">
@@ -1152,7 +1179,7 @@
       </c>
       <c r="G32" s="5" t="e"/>
       <c r="H32" s="6" t="n">
-        <v>28000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="33" ht="23" customHeight="true">
@@ -1174,6 +1201,72 @@
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="6" t="n">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="3" t="e"/>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="6" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="3" t="e"/>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="6" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="3" t="e"/>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="6" t="n">
         <v>23100</v>
       </c>
     </row>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>26.04.2024 0:00:00</t>
+    <t>02.05.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
@@ -112,28 +112,10 @@
     <t>Упаковка для бургера типа "Уголок" 170х150 мм, диз. "Food`корт", разноцв., бум., 1000 шт/кор (ООО Фл</t>
   </si>
   <si>
-    <t>113902</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 500 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
     <t>114628</t>
   </si>
   <si>
     <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
-  </si>
-  <si>
-    <t>114914</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 375 мл, диз. "Bubble Cup", прозр., ПП, 25 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>115072</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 500 мл, диз. "Bubble Cup", прозр., ПП, 20 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>115483</t>
@@ -307,7 +289,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H20"/>
+  <dimension ref="H17"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -579,14 +561,14 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>21.55</v>
+        <v>92.85</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
       <c r="H11" s="7" t="n">
-        <v>5000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -602,15 +584,15 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>92.85</v>
+      <c r="E12" s="8" t="n">
+        <v>6268.22</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="7" t="n">
-        <v>2100</v>
+      <c r="H12" s="6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -626,18 +608,18 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v>26.61</v>
+      <c r="E13" s="8" t="n">
+        <v>8786.98</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
       <c r="H13" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" ht="11" customHeight="true">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -650,15 +632,15 @@
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v>25.36</v>
+      <c r="E14" s="8" t="n">
+        <v>2413.78</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="7" t="n">
-        <v>4000</v>
+      <c r="H14" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -674,15 +656,15 @@
       <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="8" t="n">
-        <v>6268.22</v>
+      <c r="E15" s="4" t="n">
+        <v>297.85</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="6" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -699,17 +681,17 @@
         <v>40</v>
       </c>
       <c r="E16" s="8" t="n">
-        <v>8786.98</v>
+        <v>3957.83</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" ht="23" customHeight="true">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" ht="11" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -723,85 +705,13 @@
         <v>42</v>
       </c>
       <c r="E17" s="8" t="n">
-        <v>2413.78</v>
+        <v>3704.8</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="11" customHeight="true">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>297.85</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5" t="e"/>
-      <c r="H18" s="6" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" ht="11" customHeight="true">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="8" t="n">
-        <v>3957.83</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="5" t="e"/>
-      <c r="H19" s="6" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" ht="11" customHeight="true">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="8" t="n">
-        <v>3704.8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="5" t="e"/>
-      <c r="H20" s="6" t="n">
         <v>40</v>
       </c>
     </row>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Дата</t>
   </si>
@@ -49,49 +49,118 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>06.05.2024 0:00:00</t>
+    <t>10.05.2024 0:00:00</t>
   </si>
   <si>
     <t>Шымкент в Пути</t>
   </si>
   <si>
-    <t>113206</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+    <t>451423</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные 2-сл., бел., 10 м, 2 рул/упак "Familia" Радуга</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>113207</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>113208</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>113209</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d95 мм куполообразная с отверстием, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+    <t>107255</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>143080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>155846</t>
+  </si>
+  <si>
+    <t>Контейнер 1500 мл 1-секц. 179х132х93 мм, серия 179, без крышки, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>501323</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
+  </si>
+  <si>
+    <t>106096</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф</t>
+  </si>
+  <si>
+    <t>106410</t>
+  </si>
+  <si>
+    <t>Контейнер 1500 мл 1-секц. 186х132х93 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас</t>
+  </si>
+  <si>
+    <t>104368</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d5 мм, цвет в ассорт., пласт. с гофроизгибом, 1000 шт/упак (ООО Экстр</t>
+  </si>
+  <si>
+    <t>109470</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
+    <t>105854</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 250х350 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
+    <t>153470</t>
+  </si>
+  <si>
+    <t>Контейнер 350 мл 1-секц., овал 159х130х40 мм, неразъем.крышка, прозр., ОПС, 350 шт/кор "Протэк"</t>
+  </si>
+  <si>
+    <t>111800</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 240 мм, d8 мм, разноцв., пласт. прямые, 250 шт/упак (ООО Экстралайн)</t>
+  </si>
+  <si>
+    <t>112297</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 500 шт/упак (ООО Экстрал</t>
+  </si>
+  <si>
+    <t>112308</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>113027</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
   </si>
   <si>
     <t>113504</t>
   </si>
   <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>115970</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+    <t>114914</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 375 мл, диз. "Bubble Cup", прозр., матовый, ПП, 25 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115072</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 500 мл, диз. "Bubble Cup", прозр., матовый, ПП, 20 шт/упак (ООО ВЗЛП)</t>
   </si>
 </sst>
 </file>
@@ -184,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -201,8 +270,14 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
     <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -223,7 +298,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H7"/>
+  <dimension ref="H19"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -233,10 +308,10 @@
     <col min="2" max="2" width="18.66796875" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
     <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -279,17 +354,17 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16.56</v>
+        <v>259.02</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="3" ht="11" customHeight="true">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" ht="23" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -303,14 +378,14 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.16</v>
+        <v>9.27</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
-      <c r="H3" s="6" t="n">
-        <v>190000</v>
+      <c r="H3" s="7" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="4" ht="11" customHeight="true">
@@ -327,14 +402,14 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.84</v>
+        <v>2.15</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="6" t="n">
-        <v>150000</v>
+      <c r="H4" s="7" t="n">
+        <v>60000</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="true">
@@ -351,14 +426,14 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.96</v>
+        <v>29.02</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>590000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="true">
@@ -375,17 +450,17 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>7.49</v>
+        <v>14.25</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="6" t="n">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="7" ht="11" customHeight="true">
+      <c r="H6" s="7" t="n">
+        <v>35400</v>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -399,14 +474,302 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>14.85</v>
+        <v>4.89</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
-      <c r="H7" s="6" t="n">
-        <v>25000</v>
+      <c r="H7" s="7" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="7" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>775.63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>2400.81</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="6" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>3502.92</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="23" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="7" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>317.49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="6" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>1036.08</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>1576.28</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="7" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="7" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="7" t="n">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути ШМТ.xlsx
+++ b/data/В пути ШМТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Дата</t>
   </si>
@@ -47,6 +47,33 @@
   </si>
   <si>
     <t>Кон ост</t>
+  </si>
+  <si>
+    <t>15.05.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Шымкент в Пути</t>
+  </si>
+  <si>
+    <t>110451</t>
+  </si>
+  <si>
+    <t>Контейнер 900 мл, 150х150х48 мм, без окна, без крышки, крафт-бел., карт., 400 шт/кор "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>111501</t>
+  </si>
+  <si>
+    <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, крафт, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
+  </si>
+  <si>
+    <t>114852</t>
+  </si>
+  <si>
+    <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, бел, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
   </si>
 </sst>
 </file>
@@ -97,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,17 +147,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="7D8AB9"/>
+      </left>
+      <right style="thin">
+        <color rgb="7D8AB9"/>
+      </right>
+      <top style="thin">
+        <color rgb="7D8AB9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="7D8AB9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,20 +208,20 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H1"/>
+  <dimension ref="H4"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="18.66796875" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="true"/>
+    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="6.66796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="8.16796875" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -191,6 +248,78 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="e"/>
+      <c r="H2" s="6" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="3" ht="23" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="7" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" ht="23" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>39.46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="e"/>
+      <c r="H4" s="6" t="n">
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
